--- a/data/SR ERPT y LR ERPT (bien hechos) alineados al inicio del período.xlsx
+++ b/data/SR ERPT y LR ERPT (bien hechos) alineados al inicio del período.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B786D154-9AFC-8147-B2A4-D19942463409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BC1FAC-526E-0D4A-B9F8-75D47BCE3FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{5B2F2CC1-0C1D-C042-90A0-E86B3647B6AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{5B2F2CC1-0C1D-C042-90A0-E86B3647B6AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="297">
   <si>
     <t>Períodos regresiones</t>
   </si>
@@ -44,453 +44,9 @@
     <t>SR ERPT</t>
   </si>
   <si>
-    <t>1Tr2005 a 4Tr2007</t>
-  </si>
-  <si>
-    <t>2Tr2005 a 1Tr2008</t>
-  </si>
-  <si>
-    <t>3Tr2005 a 2Tr2008</t>
-  </si>
-  <si>
-    <t>4Tr2005 a 3Tr2008</t>
-  </si>
-  <si>
-    <t>1Tr2006 a 4Tr2008</t>
-  </si>
-  <si>
-    <t>2Tr2006 a 1Tr2009</t>
-  </si>
-  <si>
-    <t>3Tr2006 a 2Tr2009</t>
-  </si>
-  <si>
-    <t>4Tr2006 a 3Tr2009</t>
-  </si>
-  <si>
-    <t>1Tr2007 a 4Tr2009</t>
-  </si>
-  <si>
-    <t>2Tr2007 a 1Tr2010</t>
-  </si>
-  <si>
-    <t>3Tr2007 a 2Tr2010</t>
-  </si>
-  <si>
-    <t>4Tr2007 a 3Tr2010</t>
-  </si>
-  <si>
-    <t>1Tr2008 a 4Tr2010</t>
-  </si>
-  <si>
-    <t>2Tr2008 a 1Tr2011</t>
-  </si>
-  <si>
-    <t>3Tr2008 a 2Tr2011</t>
-  </si>
-  <si>
-    <t>4Tr2008 a 3Tr2011</t>
-  </si>
-  <si>
-    <t>1Tr2009 a 4Tr2011</t>
-  </si>
-  <si>
-    <t>2Tr2009 a 1Tr2012</t>
-  </si>
-  <si>
-    <t>3Tr2009 a 2Tr2012</t>
-  </si>
-  <si>
-    <t>4Tr2009 a 3Tr2012</t>
-  </si>
-  <si>
-    <t>1Tr2010 a 4Tr2012</t>
-  </si>
-  <si>
-    <t>2Tr2010 a 1Tr2013</t>
-  </si>
-  <si>
-    <t>3Tr2010 a 2Tr2013</t>
-  </si>
-  <si>
-    <t>4Tr2010 a 3Tr2013</t>
-  </si>
-  <si>
-    <t>1Tr2011 a 4Tr2013</t>
-  </si>
-  <si>
-    <t>2Tr2011 a 1Tr2014</t>
-  </si>
-  <si>
-    <t>3Tr2011 a 2Tr2014</t>
-  </si>
-  <si>
-    <t>4Tr2011 a 3Tr2014</t>
-  </si>
-  <si>
-    <t>1Tr2012 a 4Tr2014</t>
-  </si>
-  <si>
-    <t>2Tr2012 a 1Tr2015</t>
-  </si>
-  <si>
-    <t>3Tr2012 a 2Tr2015</t>
-  </si>
-  <si>
-    <t>4Tr2012 a 3Tr2015</t>
-  </si>
-  <si>
-    <t>1Tr2013 a 4Tr2015</t>
-  </si>
-  <si>
-    <t>2Tr2013 a 1Tr2016</t>
-  </si>
-  <si>
-    <t>3Tr2013 a 2Tr2016</t>
-  </si>
-  <si>
-    <t>4Tr2013 a 3Tr2016</t>
-  </si>
-  <si>
-    <t>1Tr2014 a 4Tr2016</t>
-  </si>
-  <si>
-    <t>2Tr2014 a 1Tr2017</t>
-  </si>
-  <si>
-    <t>3Tr2014 a 2Tr2017</t>
-  </si>
-  <si>
-    <t>4Tr2014 a 3Tr2017</t>
-  </si>
-  <si>
-    <t>1Tr2015 a 4Tr2017</t>
-  </si>
-  <si>
-    <t>2Tr2015 a 1Tr2018</t>
-  </si>
-  <si>
-    <t>3Tr2015 a 2Tr2018</t>
-  </si>
-  <si>
-    <t>4Tr2015 a 3Tr2018</t>
-  </si>
-  <si>
-    <t>1Tr2016 a 4Tr2018</t>
-  </si>
-  <si>
-    <t>2Tr2016 a 1Tr2019</t>
-  </si>
-  <si>
-    <t>3Tr2016 a 2Tr2019</t>
-  </si>
-  <si>
-    <t>4Tr2016 a 3Tr2019</t>
-  </si>
-  <si>
-    <t>1Tr2017 a 4Tr2019</t>
-  </si>
-  <si>
-    <t>2Tr2017 a 1Tr2020</t>
-  </si>
-  <si>
-    <t>3Tr2017 a 2Tr2020</t>
-  </si>
-  <si>
-    <t>4Tr2017 a 3Tr2020</t>
-  </si>
-  <si>
-    <t>1Tr2018 a 4Tr2020</t>
-  </si>
-  <si>
-    <t>1Tr2004 a 4Tr2006</t>
-  </si>
-  <si>
-    <t>2Tr2004 a 1Tr2007</t>
-  </si>
-  <si>
-    <t>3Tr2004 a 2Tr2007</t>
-  </si>
-  <si>
-    <t>4Tr2004 a 3Tr2007</t>
-  </si>
-  <si>
-    <t>1Tr2003 a 4Tr2005</t>
-  </si>
-  <si>
-    <t>2Tr2003 a 1Tr2006</t>
-  </si>
-  <si>
-    <t>3Tr2003 a 2Tr2006</t>
-  </si>
-  <si>
-    <t>4Tr2003 a 3Tr2006</t>
-  </si>
-  <si>
-    <t>1Tr2002 a 4Tr2004</t>
-  </si>
-  <si>
-    <t>2Tr2002 a 1Tr2005</t>
-  </si>
-  <si>
-    <t>3Tr2002 a 2Tr2005</t>
-  </si>
-  <si>
-    <t>4Tr2002 a 3Tr2005</t>
-  </si>
-  <si>
-    <t>1Tr2001 a 4Tr2003</t>
-  </si>
-  <si>
-    <t>2Tr2001 a 1Tr2004</t>
-  </si>
-  <si>
-    <t>3Tr2001 a 2Tr2004</t>
-  </si>
-  <si>
-    <t>4Tr2001 a 3Tr2004</t>
-  </si>
-  <si>
-    <t>1Tr2000 a 4Tr2002</t>
-  </si>
-  <si>
-    <t>2Tr2000 a 1Tr2003</t>
-  </si>
-  <si>
-    <t>3Tr2000 a 2Tr2003</t>
-  </si>
-  <si>
-    <t>4Tr2000 a 3Tr2003</t>
-  </si>
-  <si>
-    <t>1Tr1999 a 4Tr2001</t>
-  </si>
-  <si>
-    <t>2Tr1999 a 1Tr2002</t>
-  </si>
-  <si>
-    <t>3Tr1999 a 2Tr2002</t>
-  </si>
-  <si>
-    <t>4Tr1999 a 3Tr2002</t>
-  </si>
-  <si>
-    <t>1Tr1998 a 4Tr2000</t>
-  </si>
-  <si>
-    <t>2Tr1998 a 1Tr2001</t>
-  </si>
-  <si>
-    <t>3Tr1998 a 2Tr2001</t>
-  </si>
-  <si>
-    <t>4Tr1998 a 3Tr2001</t>
-  </si>
-  <si>
-    <t>1Tr1997 a 4Tr1999</t>
-  </si>
-  <si>
-    <t>2Tr1997 a 1Tr2000</t>
-  </si>
-  <si>
-    <t>3Tr1997 a 2Tr2000</t>
-  </si>
-  <si>
-    <t>4Tr1997 a 3Tr2000</t>
-  </si>
-  <si>
     <t>LR ERPT</t>
   </si>
   <si>
-    <t>1Tr1996 a 4Tr1998</t>
-  </si>
-  <si>
-    <t>2Tr1996 a 1Tr1999</t>
-  </si>
-  <si>
-    <t>3Tr1996 a 2Tr1999</t>
-  </si>
-  <si>
-    <t>4Tr1996 a 3Tr1999</t>
-  </si>
-  <si>
-    <t>1Tr1995 a 4Tr1997</t>
-  </si>
-  <si>
-    <t>2Tr1995 a 1Tr1998</t>
-  </si>
-  <si>
-    <t>3Tr1995 a 2Tr1998</t>
-  </si>
-  <si>
-    <t>4Tr1995 a 3Tr1998</t>
-  </si>
-  <si>
-    <t>1Tr1994 a 4Tr1996</t>
-  </si>
-  <si>
-    <t>2Tr1994 a 1Tr1997</t>
-  </si>
-  <si>
-    <t>3Tr1994 a 2Tr1997</t>
-  </si>
-  <si>
-    <t>4Tr1994 a 3Tr1997</t>
-  </si>
-  <si>
-    <t>1Tr1993 a 4Tr1995</t>
-  </si>
-  <si>
-    <t>2Tr1993 a 1Tr1996</t>
-  </si>
-  <si>
-    <t>3Tr1993 a 2Tr1996</t>
-  </si>
-  <si>
-    <t>4Tr1993 a 3Tr1996</t>
-  </si>
-  <si>
-    <t>1Tr1992 a 4Tr1994</t>
-  </si>
-  <si>
-    <t>2Tr1992 a 1Tr1995</t>
-  </si>
-  <si>
-    <t>3Tr1992 a 2Tr1995</t>
-  </si>
-  <si>
-    <t>4Tr1992 a 3Tr1995</t>
-  </si>
-  <si>
-    <t>1Tr1991 a 4Tr1993</t>
-  </si>
-  <si>
-    <t>2Tr1991 a 1Tr1994</t>
-  </si>
-  <si>
-    <t>3Tr1991 a 2Tr1994</t>
-  </si>
-  <si>
-    <t>4Tr1991 a 3Tr1994</t>
-  </si>
-  <si>
-    <t>1Tr1990 a 4Tr1992</t>
-  </si>
-  <si>
-    <t>2Tr1990 a 1Tr1993</t>
-  </si>
-  <si>
-    <t>3Tr1990 a 2Tr1993</t>
-  </si>
-  <si>
-    <t>4Tr1990 a 3Tr1993</t>
-  </si>
-  <si>
-    <t>1Tr1989 a 4Tr1991</t>
-  </si>
-  <si>
-    <t>2Tr1989 a 1Tr1992</t>
-  </si>
-  <si>
-    <t>3Tr1989 a 2Tr1992</t>
-  </si>
-  <si>
-    <t>4Tr1989 a 3Tr1992</t>
-  </si>
-  <si>
-    <t>1Tr1988 a 4Tr1990</t>
-  </si>
-  <si>
-    <t>2Tr1988 a 1Tr1991</t>
-  </si>
-  <si>
-    <t>3Tr1988 a 2Tr1991</t>
-  </si>
-  <si>
-    <t>4Tr1988 a 3Tr1991</t>
-  </si>
-  <si>
-    <t>1Tr1987 a 4Tr1989</t>
-  </si>
-  <si>
-    <t>2Tr1987 a 1Tr1990</t>
-  </si>
-  <si>
-    <t>3Tr1987 a 2Tr1990</t>
-  </si>
-  <si>
-    <t>4Tr1987 a 3Tr1990</t>
-  </si>
-  <si>
-    <t>1Tr1986 a 4Tr1988</t>
-  </si>
-  <si>
-    <t>2Tr1986 a 1Tr1989</t>
-  </si>
-  <si>
-    <t>3Tr1986 a 2Tr1989</t>
-  </si>
-  <si>
-    <t>4Tr1986 a 3Tr1989</t>
-  </si>
-  <si>
-    <t>1Tr1985 a 4Tr1987</t>
-  </si>
-  <si>
-    <t>2Tr1985 a 1Tr1988</t>
-  </si>
-  <si>
-    <t>3Tr1985 a 2Tr1988</t>
-  </si>
-  <si>
-    <t>4Tr1985 a 3Tr1988</t>
-  </si>
-  <si>
-    <t>1Tr1984 a 4Tr1986</t>
-  </si>
-  <si>
-    <t>2Tr1984 a 1Tr1987</t>
-  </si>
-  <si>
-    <t>3Tr1984 a 2Tr1987</t>
-  </si>
-  <si>
-    <t>4Tr1984 a 3Tr1987</t>
-  </si>
-  <si>
-    <t>1Tr1983 a 4Tr1985</t>
-  </si>
-  <si>
-    <t>2Tr1983 a 1Tr1986</t>
-  </si>
-  <si>
-    <t>3Tr1983 a 2Tr1986</t>
-  </si>
-  <si>
-    <t>4Tr1983 a 3Tr1986</t>
-  </si>
-  <si>
-    <t>1Tr1982 a 4Tr1984</t>
-  </si>
-  <si>
-    <t>2Tr1982 a 1Tr1985</t>
-  </si>
-  <si>
-    <t>3Tr1982 a 2Tr1985</t>
-  </si>
-  <si>
-    <t>4Tr1982 a 3Tr1985</t>
-  </si>
-  <si>
-    <t>1Tr1981 a 4Tr1983</t>
-  </si>
-  <si>
-    <t>2Tr1981 a 1Tr1984</t>
-  </si>
-  <si>
-    <t>3Tr1981 a 2Tr1984</t>
-  </si>
-  <si>
     <t>2q1981-1q1987</t>
   </si>
   <si>
@@ -897,6 +453,477 @@
   </si>
   <si>
     <t>1q2015-4q2020</t>
+  </si>
+  <si>
+    <t>1Tr1981 a 4Tr1981</t>
+  </si>
+  <si>
+    <t>2Tr1981 a 1Tr1982</t>
+  </si>
+  <si>
+    <t>3Tr1981 a 2Tr1982</t>
+  </si>
+  <si>
+    <t>4Tr1981 a 3Tr1982</t>
+  </si>
+  <si>
+    <t>1Tr1982 a 4Tr1982</t>
+  </si>
+  <si>
+    <t>2Tr1982 a 1Tr1983</t>
+  </si>
+  <si>
+    <t>3Tr1982 a 2Tr1983</t>
+  </si>
+  <si>
+    <t>4Tr1982 a 3Tr1983</t>
+  </si>
+  <si>
+    <t>1Tr1983 a 4Tr1983</t>
+  </si>
+  <si>
+    <t>2Tr1983 a 1Tr1984</t>
+  </si>
+  <si>
+    <t>3Tr1983 a 2Tr1984</t>
+  </si>
+  <si>
+    <t>4Tr1983 a 3Tr1984</t>
+  </si>
+  <si>
+    <t>1Tr1984 a 4Tr1984</t>
+  </si>
+  <si>
+    <t>2Tr1984 a 1Tr1985</t>
+  </si>
+  <si>
+    <t>3Tr1984 a 2Tr1985</t>
+  </si>
+  <si>
+    <t>4Tr1984 a 3Tr1985</t>
+  </si>
+  <si>
+    <t>1Tr1985 a 4Tr1985</t>
+  </si>
+  <si>
+    <t>2Tr1985 a 1Tr1986</t>
+  </si>
+  <si>
+    <t>3Tr1985 a 2Tr1986</t>
+  </si>
+  <si>
+    <t>4Tr1985 a 3Tr1986</t>
+  </si>
+  <si>
+    <t>1Tr1986 a 4Tr1986</t>
+  </si>
+  <si>
+    <t>2Tr1986 a 1Tr1987</t>
+  </si>
+  <si>
+    <t>3Tr1986 a 2Tr1987</t>
+  </si>
+  <si>
+    <t>4Tr1986 a 3Tr1987</t>
+  </si>
+  <si>
+    <t>1Tr1987 a 4Tr1987</t>
+  </si>
+  <si>
+    <t>2Tr1987 a 1Tr1988</t>
+  </si>
+  <si>
+    <t>3Tr1987 a 2Tr1988</t>
+  </si>
+  <si>
+    <t>4Tr1987 a 3Tr1988</t>
+  </si>
+  <si>
+    <t>1Tr1988 a 4Tr1988</t>
+  </si>
+  <si>
+    <t>2Tr1988 a 1Tr1989</t>
+  </si>
+  <si>
+    <t>3Tr1988 a 2Tr1989</t>
+  </si>
+  <si>
+    <t>4Tr1988 a 3Tr1989</t>
+  </si>
+  <si>
+    <t>1Tr1989 a 4Tr1989</t>
+  </si>
+  <si>
+    <t>2Tr1989 a 1Tr1990</t>
+  </si>
+  <si>
+    <t>3Tr1989 a 2Tr1990</t>
+  </si>
+  <si>
+    <t>4Tr1989 a 3Tr1990</t>
+  </si>
+  <si>
+    <t>1Tr1990 a 4Tr1990</t>
+  </si>
+  <si>
+    <t>2Tr1990 a 1Tr1991</t>
+  </si>
+  <si>
+    <t>3Tr1990 a 2Tr1991</t>
+  </si>
+  <si>
+    <t>4Tr1990 a 3Tr1991</t>
+  </si>
+  <si>
+    <t>1Tr1991 a 4Tr1991</t>
+  </si>
+  <si>
+    <t>2Tr1991 a 1Tr1992</t>
+  </si>
+  <si>
+    <t>3Tr1991 a 2Tr1992</t>
+  </si>
+  <si>
+    <t>4Tr1991 a 3Tr1992</t>
+  </si>
+  <si>
+    <t>1Tr1992 a 4Tr1992</t>
+  </si>
+  <si>
+    <t>2Tr1992 a 1Tr1993</t>
+  </si>
+  <si>
+    <t>3Tr1992 a 2Tr1993</t>
+  </si>
+  <si>
+    <t>4Tr1992 a 3Tr1993</t>
+  </si>
+  <si>
+    <t>1Tr1993 a 4Tr1993</t>
+  </si>
+  <si>
+    <t>2Tr1993 a 1Tr1994</t>
+  </si>
+  <si>
+    <t>3Tr1993 a 2Tr1994</t>
+  </si>
+  <si>
+    <t>4Tr1993 a 3Tr1994</t>
+  </si>
+  <si>
+    <t>1Tr1994 a 4Tr1994</t>
+  </si>
+  <si>
+    <t>2Tr1994 a 1Tr1995</t>
+  </si>
+  <si>
+    <t>3Tr1994 a 2Tr1995</t>
+  </si>
+  <si>
+    <t>4Tr1994 a 3Tr1995</t>
+  </si>
+  <si>
+    <t>1Tr1995 a 4Tr1995</t>
+  </si>
+  <si>
+    <t>2Tr1995 a 1Tr1996</t>
+  </si>
+  <si>
+    <t>3Tr1995 a 2Tr1996</t>
+  </si>
+  <si>
+    <t>4Tr1995 a 3Tr1996</t>
+  </si>
+  <si>
+    <t>1Tr1996 a 4Tr1996</t>
+  </si>
+  <si>
+    <t>2Tr1996 a 1Tr1997</t>
+  </si>
+  <si>
+    <t>3Tr1996 a 2Tr1997</t>
+  </si>
+  <si>
+    <t>4Tr1996 a 3Tr1997</t>
+  </si>
+  <si>
+    <t>1Tr1997 a 4Tr1997</t>
+  </si>
+  <si>
+    <t>2Tr1997 a 1Tr1998</t>
+  </si>
+  <si>
+    <t>3Tr1997 a 2Tr1998</t>
+  </si>
+  <si>
+    <t>4Tr1997 a 3Tr1998</t>
+  </si>
+  <si>
+    <t>1Tr1998 a 4Tr1998</t>
+  </si>
+  <si>
+    <t>2Tr1998 a 1Tr1999</t>
+  </si>
+  <si>
+    <t>3Tr1998 a 2Tr1999</t>
+  </si>
+  <si>
+    <t>4Tr1998 a 3Tr1999</t>
+  </si>
+  <si>
+    <t>1Tr1999 a 4Tr1999</t>
+  </si>
+  <si>
+    <t>2Tr1999 a 1Tr2000</t>
+  </si>
+  <si>
+    <t>3Tr1999 a 2Tr2000</t>
+  </si>
+  <si>
+    <t>4Tr1999 a 3Tr2000</t>
+  </si>
+  <si>
+    <t>1Tr2000 a 4Tr2000</t>
+  </si>
+  <si>
+    <t>2Tr2000 a 1Tr2001</t>
+  </si>
+  <si>
+    <t>3Tr2000 a 2Tr2001</t>
+  </si>
+  <si>
+    <t>4Tr2000 a 3Tr2001</t>
+  </si>
+  <si>
+    <t>1Tr2001 a 4Tr2001</t>
+  </si>
+  <si>
+    <t>2Tr2001 a 1Tr2002</t>
+  </si>
+  <si>
+    <t>3Tr2001 a 2Tr2002</t>
+  </si>
+  <si>
+    <t>4Tr2001 a 3Tr2002</t>
+  </si>
+  <si>
+    <t>1Tr2002 a 4Tr2002</t>
+  </si>
+  <si>
+    <t>2Tr2002 a 1Tr2003</t>
+  </si>
+  <si>
+    <t>3Tr2002 a 2Tr2003</t>
+  </si>
+  <si>
+    <t>4Tr2002 a 3Tr2003</t>
+  </si>
+  <si>
+    <t>1Tr2003 a 4Tr2003</t>
+  </si>
+  <si>
+    <t>2Tr2003 a 1Tr2004</t>
+  </si>
+  <si>
+    <t>3Tr2003 a 2Tr2004</t>
+  </si>
+  <si>
+    <t>4Tr2003 a 3Tr2004</t>
+  </si>
+  <si>
+    <t>1Tr2004 a 4Tr2004</t>
+  </si>
+  <si>
+    <t>2Tr2004 a 1Tr2005</t>
+  </si>
+  <si>
+    <t>3Tr2004 a 2Tr2005</t>
+  </si>
+  <si>
+    <t>4Tr2004 a 3Tr2005</t>
+  </si>
+  <si>
+    <t>1Tr2005 a 4Tr2005</t>
+  </si>
+  <si>
+    <t>2Tr2005 a 1Tr2006</t>
+  </si>
+  <si>
+    <t>3Tr2005 a 2Tr2006</t>
+  </si>
+  <si>
+    <t>4Tr2005 a 3Tr2006</t>
+  </si>
+  <si>
+    <t>1Tr2006 a 4Tr2006</t>
+  </si>
+  <si>
+    <t>2Tr2006 a 1Tr2007</t>
+  </si>
+  <si>
+    <t>3Tr2006 a 2Tr2007</t>
+  </si>
+  <si>
+    <t>4Tr2006 a 3Tr2007</t>
+  </si>
+  <si>
+    <t>1Tr2007 a 4Tr2007</t>
+  </si>
+  <si>
+    <t>2Tr2007 a 1Tr2008</t>
+  </si>
+  <si>
+    <t>3Tr2007 a 2Tr2008</t>
+  </si>
+  <si>
+    <t>4Tr2007 a 3Tr2008</t>
+  </si>
+  <si>
+    <t>1Tr2008 a 4Tr2008</t>
+  </si>
+  <si>
+    <t>2Tr2008 a 1Tr2009</t>
+  </si>
+  <si>
+    <t>3Tr2008 a 2Tr2009</t>
+  </si>
+  <si>
+    <t>4Tr2008 a 3Tr2009</t>
+  </si>
+  <si>
+    <t>1Tr2009 a 4Tr2009</t>
+  </si>
+  <si>
+    <t>2Tr2009 a 1Tr2010</t>
+  </si>
+  <si>
+    <t>3Tr2009 a 2Tr2010</t>
+  </si>
+  <si>
+    <t>4Tr2009 a 3Tr2010</t>
+  </si>
+  <si>
+    <t>1Tr2010 a 4Tr2010</t>
+  </si>
+  <si>
+    <t>2Tr2010 a 1Tr2011</t>
+  </si>
+  <si>
+    <t>3Tr2010 a 2Tr2011</t>
+  </si>
+  <si>
+    <t>4Tr2010 a 3Tr2011</t>
+  </si>
+  <si>
+    <t>1Tr2011 a 4Tr2011</t>
+  </si>
+  <si>
+    <t>2Tr2011 a 1Tr2012</t>
+  </si>
+  <si>
+    <t>3Tr2011 a 2Tr2012</t>
+  </si>
+  <si>
+    <t>4Tr2011 a 3Tr2012</t>
+  </si>
+  <si>
+    <t>1Tr2012 a 4Tr2012</t>
+  </si>
+  <si>
+    <t>2Tr2012 a 1Tr2013</t>
+  </si>
+  <si>
+    <t>3Tr2012 a 2Tr2013</t>
+  </si>
+  <si>
+    <t>4Tr2012 a 3Tr2013</t>
+  </si>
+  <si>
+    <t>1Tr2013 a 4Tr2013</t>
+  </si>
+  <si>
+    <t>2Tr2013 a 1Tr2014</t>
+  </si>
+  <si>
+    <t>3Tr2013 a 2Tr2014</t>
+  </si>
+  <si>
+    <t>4Tr2013 a 3Tr2014</t>
+  </si>
+  <si>
+    <t>1Tr2014 a 4Tr2014</t>
+  </si>
+  <si>
+    <t>2Tr2014 a 1Tr2015</t>
+  </si>
+  <si>
+    <t>3Tr2014 a 2Tr2015</t>
+  </si>
+  <si>
+    <t>4Tr2014 a 3Tr2015</t>
+  </si>
+  <si>
+    <t>1Tr2015 a 4Tr2015</t>
+  </si>
+  <si>
+    <t>2Tr2015 a 1Tr2016</t>
+  </si>
+  <si>
+    <t>3Tr2015 a 2Tr2016</t>
+  </si>
+  <si>
+    <t>4Tr2015 a 3Tr2016</t>
+  </si>
+  <si>
+    <t>1Tr2016 a 4Tr2016</t>
+  </si>
+  <si>
+    <t>2Tr2016 a 1Tr2017</t>
+  </si>
+  <si>
+    <t>3Tr2016 a 2Tr2017</t>
+  </si>
+  <si>
+    <t>4Tr2016 a 3Tr2017</t>
+  </si>
+  <si>
+    <t>1Tr2017 a 4Tr2017</t>
+  </si>
+  <si>
+    <t>2Tr2017 a 1Tr2018</t>
+  </si>
+  <si>
+    <t>3Tr2017 a 2Tr2018</t>
+  </si>
+  <si>
+    <t>4Tr2017 a 3Tr2018</t>
+  </si>
+  <si>
+    <t>1Tr2018 a 4Tr2018</t>
+  </si>
+  <si>
+    <t>2Tr2018 a 1Tr2019</t>
+  </si>
+  <si>
+    <t>3Tr2018 a 2Tr2019</t>
+  </si>
+  <si>
+    <t>4Tr2018 a 3Tr2019</t>
+  </si>
+  <si>
+    <t>1Tr2019 a 4Tr2019</t>
+  </si>
+  <si>
+    <t>2Tr2019 a 1Tr2020</t>
+  </si>
+  <si>
+    <t>3Tr2019 a 2Tr2020</t>
+  </si>
+  <si>
+    <t>4Tr2019 a 3Tr2020</t>
+  </si>
+  <si>
+    <t>1Tr2020 a 4Tr2020</t>
   </si>
 </sst>
 </file>
@@ -906,7 +933,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -919,6 +946,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -941,10 +976,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1259,19 +1296,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ED7711-F4BA-3D42-9B3B-DDDE3077539C}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:Q158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:XFD130"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1282,15 +1320,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2">
         <v>0.23499999999999999</v>
@@ -1298,13 +1336,23 @@
       <c r="D2" s="2">
         <v>0.36675062972292199</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2">
         <v>0.19769999999999999</v>
@@ -1312,13 +1360,21 @@
       <c r="D3" s="2">
         <v>2.9840637450199252</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2">
         <v>0.42949999999999999</v>
@@ -1326,13 +1382,21 @@
       <c r="D4" s="2">
         <v>1.0667870036101081</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2">
         <v>0.45879999999999999</v>
@@ -1340,10 +1404,18 @@
       <c r="D5" s="2">
         <v>1.0581527936145954</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>145</v>
@@ -1354,10 +1426,18 @@
       <c r="D6" s="2">
         <v>1.4639063516150008</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>146</v>
@@ -1368,10 +1448,18 @@
       <c r="D7" s="2">
         <v>1.8470808784145689</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>147</v>
@@ -1382,10 +1470,19 @@
       <c r="D8" s="2">
         <v>0.84588099671898553</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>148</v>
@@ -1396,13 +1493,22 @@
       <c r="D9" s="2">
         <v>2.0844361806846772</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2">
         <v>0.7843</v>
@@ -1410,13 +1516,22 @@
       <c r="D10" s="2">
         <v>2.2769575533878199</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2">
         <v>0.501</v>
@@ -1424,13 +1539,22 @@
       <c r="D11" s="2">
         <v>2.0029725043349025</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2">
         <v>0.39750000000000002</v>
@@ -1438,13 +1562,22 @@
       <c r="D12" s="2">
         <v>0.7468438538205977</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2">
         <v>0.81979999999999997</v>
@@ -1452,13 +1585,22 @@
       <c r="D13" s="2">
         <v>3.8241399762752066</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2">
         <v>0.74099999999999999</v>
@@ -1466,13 +1608,18 @@
       <c r="D14" s="2">
         <v>1.0096393165998734</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2">
         <v>0.64600000000000002</v>
@@ -1480,13 +1627,16 @@
       <c r="D15" s="2">
         <v>0.4780658885758638</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2">
         <v>0.55169999999999997</v>
@@ -1494,13 +1644,16 @@
       <c r="D16" s="2">
         <v>1.0915029092106707</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2">
         <v>0.54700000000000004</v>
@@ -1508,13 +1661,16 @@
       <c r="D17" s="2">
         <v>1.1198459123983449</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2">
         <v>0.53949999999999998</v>
@@ -1522,13 +1678,16 @@
       <c r="D18" s="2">
         <v>1.145816847708798</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2">
         <v>0.52759999999999996</v>
@@ -1536,13 +1695,16 @@
       <c r="D19" s="2">
         <v>1.1008489837921276</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2">
         <v>0.4405</v>
@@ -1550,13 +1712,16 @@
       <c r="D20" s="2">
         <v>1.0557235817065347</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2">
         <v>0.4088</v>
@@ -1564,13 +1729,16 @@
       <c r="D21" s="2">
         <v>0.93702248417376133</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2">
         <v>0.36030000000000001</v>
@@ -1578,13 +1746,16 @@
       <c r="D22" s="2">
         <v>0.81709762532981534</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2">
         <v>0.38450000000000001</v>
@@ -1592,13 +1763,16 @@
       <c r="D23" s="2">
         <v>0.91956189963192358</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2">
         <v>0.36080000000000001</v>
@@ -1606,13 +1780,16 @@
       <c r="D24" s="2">
         <v>0.92671362774315913</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C25" s="2">
         <v>0.36870000000000003</v>
@@ -1620,13 +1797,16 @@
       <c r="D25" s="2">
         <v>0.934931842698833</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2">
         <v>0.36470000000000002</v>
@@ -1634,13 +1814,16 @@
       <c r="D26" s="2">
         <v>0.91499924778095376</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="C27" s="2">
         <v>0.3483</v>
@@ -1648,13 +1831,16 @@
       <c r="D27" s="2">
         <v>0.94456495541094221</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="C28" s="2">
         <v>0.3488</v>
@@ -1662,13 +1848,16 @@
       <c r="D28" s="2">
         <v>0.93820365273955453</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C29" s="2">
         <v>0.3448</v>
@@ -1676,13 +1865,16 @@
       <c r="D29" s="2">
         <v>0.93600040410163154</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2">
         <v>0.35299999999999998</v>
@@ -1690,13 +1882,16 @@
       <c r="D30" s="2">
         <v>0.94314005716619043</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2">
         <v>0.35360000000000003</v>
@@ -1704,13 +1899,16 @@
       <c r="D31" s="2">
         <v>0.94326638801101026</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2">
         <v>0.379</v>
@@ -1718,13 +1916,16 @@
       <c r="D32" s="2">
         <v>0.96110276268639472</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C33" s="2">
         <v>0.39169999999999999</v>
@@ -1732,13 +1933,16 @@
       <c r="D33" s="2">
         <v>0.97832353919503268</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="C34" s="2">
         <v>0.4173</v>
@@ -1746,13 +1950,16 @@
       <c r="D34" s="2">
         <v>1.0163978858923974</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="C35" s="2">
         <v>0.74590000000000001</v>
@@ -1760,13 +1967,16 @@
       <c r="D35" s="2">
         <v>1.1580329935904172</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C36" s="2">
         <v>0.60399999999999998</v>
@@ -1774,13 +1984,16 @@
       <c r="D36" s="2">
         <v>0.99132648251154887</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="C37" s="2">
         <v>0.65600000000000003</v>
@@ -1788,13 +2001,16 @@
       <c r="D37" s="2">
         <v>1.1443923945990631</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2">
         <v>9.5699999999999993E-2</v>
@@ -1802,13 +2018,16 @@
       <c r="D38" s="2">
         <v>-2.8010752688172049</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C39" s="2">
         <v>9.2999999999999999E-2</v>
@@ -1816,13 +2035,16 @@
       <c r="D39" s="2">
         <v>-3.7663125948406666</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="C40" s="2">
         <v>5.6000000000000001E-2</v>
@@ -1830,13 +2052,16 @@
       <c r="D40" s="2">
         <v>-4.3922174181593565</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="C41" s="2">
         <v>0.12540000000000001</v>
@@ -1844,13 +2069,16 @@
       <c r="D41" s="2">
         <v>-1.6320453739808569</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="C42" s="2">
         <v>-0.2064</v>
@@ -1858,13 +2086,16 @@
       <c r="D42" s="2">
         <v>-2.2043795620437963</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2">
         <v>-6.1600000000000002E-2</v>
@@ -1872,13 +2103,16 @@
       <c r="D43" s="2">
         <v>-0.92060367454068226</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="C44" s="2">
         <v>-5.4899999999999997E-2</v>
@@ -1886,13 +2120,16 @@
       <c r="D44" s="2">
         <v>1.4135532079360988</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="C45" s="2">
         <v>-0.96579999999999999</v>
@@ -1900,13 +2137,16 @@
       <c r="D45" s="2">
         <v>-4.7110933993910651</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="C46" s="2">
         <v>-1.2192000000000001</v>
@@ -1914,13 +2154,16 @@
       <c r="D46" s="2">
         <v>-10.236343969713358</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C47" s="2">
         <v>-1.3872</v>
@@ -1928,13 +2171,16 @@
       <c r="D47" s="2">
         <v>-15.621621621621623</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="C48" s="2">
         <v>-1.3115000000000001</v>
@@ -1942,13 +2188,16 @@
       <c r="D48" s="2">
         <v>-12.412335808109653</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I48" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="C49" s="2">
         <v>1.7825</v>
@@ -1956,13 +2205,16 @@
       <c r="D49" s="2">
         <v>6.2136509065055101</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="C50" s="2">
         <v>-9.8895999999999997</v>
@@ -1970,13 +2222,16 @@
       <c r="D50" s="2">
         <v>-17.141886426144641</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="C51" s="2">
         <v>-10.968</v>
@@ -1984,13 +2239,16 @@
       <c r="D51" s="2">
         <v>-34.959491660047661</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="C52" s="2">
         <v>-5.1814999999999998</v>
@@ -1998,13 +2256,16 @@
       <c r="D52" s="2">
         <v>25.882796257796254</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="C53" s="2">
         <v>-0.1221</v>
@@ -2012,13 +2273,16 @@
       <c r="D53" s="2">
         <v>33.980769230769234</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I53" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="C54" s="2">
         <v>-0.34939999999999999</v>
@@ -2026,13 +2290,16 @@
       <c r="D54" s="2">
         <v>42.119302359665838</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="C55" s="2">
         <v>5.2901999999999996</v>
@@ -2040,13 +2307,16 @@
       <c r="D55" s="2">
         <v>59.521461187214612</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="C56" s="2">
         <v>5.0458999999999996</v>
@@ -2054,13 +2324,16 @@
       <c r="D56" s="2">
         <v>52.720795107033638</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="C57" s="2">
         <v>4.3951000000000002</v>
@@ -2068,13 +2341,16 @@
       <c r="D57" s="2">
         <v>44.356061788110466</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I57" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="C58" s="2">
         <v>9.6773000000000007</v>
@@ -2082,13 +2358,16 @@
       <c r="D58" s="2">
         <v>29.896615957777087</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I58" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="C59" s="2">
         <v>145.76140000000001</v>
@@ -2096,13 +2375,16 @@
       <c r="D59" s="2">
         <v>470.34532990574144</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I59" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="C60" s="2">
         <v>149.27780000000001</v>
@@ -2110,13 +2392,16 @@
       <c r="D60" s="2">
         <v>138.50509110396573</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I60" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="C61" s="2">
         <v>169.88239999999999</v>
@@ -2124,13 +2409,16 @@
       <c r="D61" s="2">
         <v>292.81152005281399</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="C62" s="2">
         <v>0.1069</v>
@@ -2138,13 +2426,16 @@
       <c r="D62" s="2">
         <v>5.2453873759763567</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I62" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="C63" s="2">
         <v>0.1099</v>
@@ -2152,13 +2443,16 @@
       <c r="D63" s="2">
         <v>27.401516386760154</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I63" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="C64" s="2">
         <v>0.1106</v>
@@ -2166,13 +2460,16 @@
       <c r="D64" s="2">
         <v>49.590036613780093</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I64" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="C65" s="2">
         <v>0.1133</v>
@@ -2180,13 +2477,16 @@
       <c r="D65" s="2">
         <v>57.773636580138131</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I65" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="C66" s="2">
         <v>0.10630000000000001</v>
@@ -2194,13 +2494,16 @@
       <c r="D66" s="2">
         <v>0.29963496248225513</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I66" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="C67" s="2">
         <v>0.11650000000000001</v>
@@ -2208,13 +2511,16 @@
       <c r="D67" s="2">
         <v>1.5065722952477254</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="C68" s="2">
         <v>0.1086</v>
@@ -2222,13 +2528,16 @@
       <c r="D68" s="2">
         <v>0.44469783352337511</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I68" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="C69" s="2">
         <v>0.106</v>
@@ -2236,13 +2545,16 @@
       <c r="D69" s="2">
         <v>0.40243009808227193</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I69" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="C70" s="2">
         <v>0.10589999999999999</v>
@@ -2250,13 +2562,16 @@
       <c r="D70" s="2">
         <v>0.3935919823855441</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="C71" s="2">
         <v>0.1062</v>
@@ -2264,13 +2579,16 @@
       <c r="D71" s="2">
         <v>0.40656288825549958</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I71" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="C72" s="2">
         <v>0.1212</v>
@@ -2278,13 +2596,16 @@
       <c r="D72" s="2">
         <v>0.3868484249187738</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I72" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="C73" s="2">
         <v>0.11219999999999999</v>
@@ -2292,13 +2613,16 @@
       <c r="D73" s="2">
         <v>0.38784350886692842</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I73" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="C74" s="2">
         <v>0.1095</v>
@@ -2306,13 +2630,16 @@
       <c r="D74" s="2">
         <v>0.40022994379151766</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I74" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="C75" s="2">
         <v>8.4400000000000003E-2</v>
@@ -2320,13 +2647,16 @@
       <c r="D75" s="2">
         <v>0.37647658706552223</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I75" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="C76" s="2">
         <v>9.4399999999999998E-2</v>
@@ -2334,13 +2664,16 @@
       <c r="D76" s="2">
         <v>0.36052871467639014</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I76" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="C77" s="2">
         <v>9.2299999999999993E-2</v>
@@ -2348,13 +2681,16 @@
       <c r="D77" s="2">
         <v>0.43464521689169772</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I77" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="C78" s="2">
         <v>0.1108</v>
@@ -2362,13 +2698,16 @@
       <c r="D78" s="2">
         <v>0.62246608748666354</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I78" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="C79" s="2">
         <v>0.14460000000000001</v>
@@ -2376,13 +2715,16 @@
       <c r="D79" s="2">
         <v>0.5520497191346958</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I79" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="C80" s="2">
         <v>0.13150000000000001</v>
@@ -2390,13 +2732,16 @@
       <c r="D80" s="2">
         <v>0.49525801952580195</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I80" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="C81" s="2">
         <v>0.14610000000000001</v>
@@ -2404,13 +2749,16 @@
       <c r="D81" s="2">
         <v>0.53268970189701892</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="C82" s="2">
         <v>0.15459999999999999</v>
@@ -2418,13 +2766,16 @@
       <c r="D82" s="2">
         <v>0.55902211874272412</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="C83" s="2">
         <v>0.13730000000000001</v>
@@ -2432,13 +2783,16 @@
       <c r="D83" s="2">
         <v>0.57432768924302791</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I83" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="C84" s="2">
         <v>0.12709999999999999</v>
@@ -2446,13 +2800,16 @@
       <c r="D84" s="2">
         <v>-7.6888590002241616E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I84" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="C85" s="2">
         <v>0.24010000000000001</v>
@@ -2460,13 +2817,16 @@
       <c r="D85" s="2">
         <v>0.85659781607683205</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I85" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="C86" s="2">
         <v>0.23039999999999999</v>
@@ -2474,13 +2834,16 @@
       <c r="D86" s="2">
         <v>0.79721281583745762</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I86" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C87" s="2">
         <v>-0.1704</v>
@@ -2488,13 +2851,16 @@
       <c r="D87" s="2">
         <v>-1.7772811918063325</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I87" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="C88" s="2">
         <v>0.21099999999999999</v>
@@ -2502,13 +2868,16 @@
       <c r="D88" s="2">
         <v>0.68495181616011869</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I88" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="C89" s="2">
         <v>0.18290000000000001</v>
@@ -2516,13 +2885,16 @@
       <c r="D89" s="2">
         <v>0.92911877394636022</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I89" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="C90" s="2">
         <v>9.0700000000000003E-2</v>
@@ -2530,13 +2902,16 @@
       <c r="D90" s="2">
         <v>-5.0312397237750724E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I90" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="C91" s="2">
         <v>8.1100000000000005E-2</v>
@@ -2544,13 +2919,16 @@
       <c r="D91" s="2">
         <v>-0.50847457627118653</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I91" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="C92" s="2">
         <v>-1.0999999999999999E-2</v>
@@ -2558,13 +2936,16 @@
       <c r="D92" s="2">
         <v>-2.2785467128027665</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I92" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="C93" s="2">
         <v>-2.9700000000000001E-2</v>
@@ -2572,13 +2953,16 @@
       <c r="D93" s="2">
         <v>-2.9286775631500741</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I93" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="C94" s="2">
         <v>-7.0900000000000005E-2</v>
@@ -2586,13 +2970,16 @@
       <c r="D94" s="2">
         <v>-0.7210655235762401</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I94" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="C95" s="2">
         <v>5.74E-2</v>
@@ -2600,13 +2987,16 @@
       <c r="D95" s="2">
         <v>13.822474032105761</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I95" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C96" s="2">
         <v>5.0900000000000001E-2</v>
@@ -2614,13 +3004,16 @@
       <c r="D96" s="2">
         <v>0.10111150950161349</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I96" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="C97" s="2">
         <v>0.19320000000000001</v>
@@ -2628,13 +3021,16 @@
       <c r="D97" s="2">
         <v>0.16197136197136197</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="C98" s="2">
         <v>8.5099999999999995E-2</v>
@@ -2642,13 +3038,16 @@
       <c r="D98" s="2">
         <v>2.9474216380182003</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I98" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="C99" s="2">
         <v>0.1003</v>
@@ -2656,13 +3055,16 @@
       <c r="D99" s="2">
         <v>0.5206579205012728</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I99" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="C100" s="2">
         <v>0.1032</v>
@@ -2670,13 +3072,16 @@
       <c r="D100" s="2">
         <v>0.55664690939881456</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I100" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="C101" s="2">
         <v>3.9800000000000002E-2</v>
@@ -2684,13 +3089,16 @@
       <c r="D101" s="2">
         <v>0.71561550151975684</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I101" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="C102" s="2">
         <v>7.1199999999999999E-2</v>
@@ -2698,13 +3106,16 @@
       <c r="D102" s="2">
         <v>0.42463991769547332</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I102" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>253</v>
+        <v>105</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="C103" s="2">
         <v>7.6999999999999999E-2</v>
@@ -2712,13 +3123,16 @@
       <c r="D103" s="2">
         <v>0.39471150285164053</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I103" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="C104" s="2">
         <v>4.36E-2</v>
@@ -2726,13 +3140,16 @@
       <c r="D104" s="2">
         <v>0.57967365028203066</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="C105" s="2">
         <v>0.19170000000000001</v>
@@ -2740,13 +3157,16 @@
       <c r="D105" s="2">
         <v>0.72158781946710171</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I105" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>108</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="C106" s="2">
         <v>0.26590000000000003</v>
@@ -2754,13 +3174,16 @@
       <c r="D106" s="2">
         <v>0.72707797772065119</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I106" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="C107" s="2">
         <v>0.46789999999999998</v>
@@ -2768,13 +3191,16 @@
       <c r="D107" s="2">
         <v>0.64437109103544143</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I107" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="C108" s="2">
         <v>9.8100000000000007E-2</v>
@@ -2782,13 +3208,16 @@
       <c r="D108" s="2">
         <v>0.33213859020310638</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I108" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="C109" s="2">
         <v>-7.4000000000000003E-3</v>
@@ -2796,13 +3225,16 @@
       <c r="D109" s="2">
         <v>0.87390029325513152</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I109" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="C110" s="2">
         <v>0.317</v>
@@ -2810,13 +3242,16 @@
       <c r="D110" s="2">
         <v>0.26204586446792061</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I110" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="C111" s="2">
         <v>0.33729999999999999</v>
@@ -2824,13 +3259,16 @@
       <c r="D111" s="2">
         <v>-1.1965145012355311E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I111" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="C112" s="2">
         <v>0.32469999999999999</v>
@@ -2838,13 +3276,16 @@
       <c r="D112" s="2">
         <v>1.1525163273146342E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I112" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="C113" s="2">
         <v>0.32490000000000002</v>
@@ -2852,13 +3293,16 @@
       <c r="D113" s="2">
         <v>2.4398745207389549E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I113" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="C114" s="2">
         <v>0.26429999999999998</v>
@@ -2866,13 +3310,16 @@
       <c r="D114" s="2">
         <v>0.45381853785900778</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I114" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="C115" s="2">
         <v>0.29830000000000001</v>
@@ -2880,13 +3327,16 @@
       <c r="D115" s="2">
         <v>26.837837837837576</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I115" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="C116" s="2">
         <v>0.3291</v>
@@ -2894,13 +3344,16 @@
       <c r="D116" s="2">
         <v>-0.56450287592440396</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I116" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="C117" s="2">
         <v>0.30830000000000002</v>
@@ -2908,13 +3361,16 @@
       <c r="D117" s="2">
         <v>-2.5582137161084542</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I117" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="C118" s="2">
         <v>0.219</v>
@@ -2922,13 +3378,16 @@
       <c r="D118" s="2">
         <v>4.6114519427403016</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I118" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="C119" s="2">
         <v>0.219</v>
@@ -2936,13 +3395,16 @@
       <c r="D119" s="2">
         <v>4.6114519427403016</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I119" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="C120" s="2">
         <v>5.9200000000000003E-2</v>
@@ -2950,13 +3412,16 @@
       <c r="D120" s="2">
         <v>0.47209866558835428</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I120" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C121" s="2">
         <v>0.27439999999999998</v>
@@ -2964,13 +3429,16 @@
       <c r="D121" s="2">
         <v>2.8400702987697706</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I121" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>124</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="C122" s="2">
         <v>0.29199999999999998</v>
@@ -2978,13 +3446,16 @@
       <c r="D122" s="2">
         <v>2.6240985576923088</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I122" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="C123" s="2">
         <v>0.21260000000000001</v>
@@ -2992,13 +3463,16 @@
       <c r="D123" s="2">
         <v>6.88854489164087</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I123" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>29</v>
+        <v>263</v>
       </c>
       <c r="C124" s="2">
         <v>0.1668</v>
@@ -3006,13 +3480,16 @@
       <c r="D124" s="2">
         <v>2.2965668371073775</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I124" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>275</v>
+        <v>127</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="C125" s="2">
         <v>0.1767</v>
@@ -3020,13 +3497,16 @@
       <c r="D125" s="2">
         <v>3.2529880478087634</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I125" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="C126" s="2">
         <v>0.2142</v>
@@ -3034,13 +3514,16 @@
       <c r="D126" s="2">
         <v>5.1159090909090867</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I126" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="C127" s="2">
         <v>0.2001</v>
@@ -3048,13 +3531,16 @@
       <c r="D127" s="2">
         <v>6.4737732656514337</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I127" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C128" s="2">
         <v>0.20119999999999999</v>
@@ -3062,13 +3548,16 @@
       <c r="D128" s="2">
         <v>5.0444191343963558</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I128" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="C129" s="2">
         <v>0.1045</v>
@@ -3076,13 +3565,16 @@
       <c r="D129" s="2">
         <v>-5.2302452316076273</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I129" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="C130" s="2">
         <v>0.18740000000000001</v>
@@ -3090,13 +3582,16 @@
       <c r="D130" s="2">
         <v>0.3317778814745681</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I130" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="C131" s="2">
         <v>0.15229999999999999</v>
@@ -3104,13 +3599,16 @@
       <c r="D131" s="2">
         <v>1.3707682291666665</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I131" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="C132" s="2">
         <v>0.15</v>
@@ -3118,13 +3616,16 @@
       <c r="D132" s="2">
         <v>1.0180834621329211</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I132" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="C133" s="2">
         <v>0.12280000000000001</v>
@@ -3132,13 +3633,16 @@
       <c r="D133" s="2">
         <v>0.85995623632385143</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I133" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="C134" s="2">
         <v>0.21260000000000001</v>
@@ -3146,13 +3650,16 @@
       <c r="D134" s="2">
         <v>6.88854489164087</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I134" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="C135" s="2">
         <v>0.18970000000000001</v>
@@ -3160,13 +3667,16 @@
       <c r="D135" s="2">
         <v>0.60733316417153027</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I135" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>286</v>
+        <v>138</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="C136" s="2">
         <v>0.182</v>
@@ -3174,13 +3684,16 @@
       <c r="D136" s="2">
         <v>0.63257078567410463</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I136" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="C137" s="2">
         <v>0.18509999999999999</v>
@@ -3188,70 +3701,174 @@
       <c r="D137" s="2">
         <v>0.65398725622707088</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="I137" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" ht="17" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>55</v>
+        <v>289</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
+      <c r="I158" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
